--- a/Code/Results/Cases/Case_0_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9735810530805979</v>
+        <v>1.031485694350901</v>
       </c>
       <c r="D2">
-        <v>0.9822426972457635</v>
+        <v>1.034130082505344</v>
       </c>
       <c r="E2">
-        <v>0.9914298457788248</v>
+        <v>1.039945419585241</v>
       </c>
       <c r="F2">
-        <v>0.9982619016471915</v>
+        <v>1.048339139711061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044981915741179</v>
+        <v>1.027121246648626</v>
       </c>
       <c r="J2">
-        <v>0.9965817227646958</v>
+        <v>1.036621158574207</v>
       </c>
       <c r="K2">
-        <v>0.9939550911139451</v>
+        <v>1.036930441628195</v>
       </c>
       <c r="L2">
-        <v>1.003009881953291</v>
+        <v>1.042729166280559</v>
       </c>
       <c r="M2">
-        <v>1.009745504169227</v>
+        <v>1.051099260956818</v>
       </c>
       <c r="N2">
-        <v>0.9979969831205431</v>
+        <v>1.038093279521491</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9805829432146635</v>
+        <v>1.032914841727663</v>
       </c>
       <c r="D3">
-        <v>0.9885415447498307</v>
+        <v>1.035472907661368</v>
       </c>
       <c r="E3">
-        <v>0.9974026446328166</v>
+        <v>1.041211508479991</v>
       </c>
       <c r="F3">
-        <v>1.004678787280362</v>
+        <v>1.049684684210353</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045429726912766</v>
+        <v>1.027107386996032</v>
       </c>
       <c r="J3">
-        <v>1.001617306281146</v>
+        <v>1.037689760018518</v>
       </c>
       <c r="K3">
-        <v>0.9993231689687778</v>
+        <v>1.038080968582189</v>
       </c>
       <c r="L3">
-        <v>1.008068867338299</v>
+        <v>1.043804377773365</v>
       </c>
       <c r="M3">
-        <v>1.015252150152558</v>
+        <v>1.052255450554406</v>
       </c>
       <c r="N3">
-        <v>1.003039717743176</v>
+        <v>1.039163398502424</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9849871582022593</v>
+        <v>1.033838931196638</v>
       </c>
       <c r="D4">
-        <v>0.9925101796891731</v>
+        <v>1.036341473076731</v>
       </c>
       <c r="E4">
-        <v>1.001165413754494</v>
+        <v>1.042030183676856</v>
       </c>
       <c r="F4">
-        <v>1.008718065044766</v>
+        <v>1.050554198088799</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045693024986531</v>
+        <v>1.02709594097996</v>
       </c>
       <c r="J4">
-        <v>1.004782849557102</v>
+        <v>1.038380165121777</v>
       </c>
       <c r="K4">
-        <v>1.002699848768712</v>
+        <v>1.038824574530844</v>
       </c>
       <c r="L4">
-        <v>1.011249793580384</v>
+        <v>1.044498993703159</v>
       </c>
       <c r="M4">
-        <v>1.018712397223252</v>
+        <v>1.053001905458458</v>
       </c>
       <c r="N4">
-        <v>1.006209756453677</v>
+        <v>1.03985478406012</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9868100509251562</v>
+        <v>1.034227264771045</v>
       </c>
       <c r="D5">
-        <v>0.9941542970693774</v>
+        <v>1.036706542765868</v>
       </c>
       <c r="E5">
-        <v>1.002724104059533</v>
+        <v>1.042374222274319</v>
       </c>
       <c r="F5">
-        <v>1.010390484661548</v>
+        <v>1.050919471727514</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045797474831673</v>
+        <v>1.027090535141004</v>
       </c>
       <c r="J5">
-        <v>1.006092540429472</v>
+        <v>1.038670163352662</v>
       </c>
       <c r="K5">
-        <v>1.004097404572644</v>
+        <v>1.039136983990695</v>
       </c>
       <c r="L5">
-        <v>1.012565984455593</v>
+        <v>1.044790746023724</v>
       </c>
       <c r="M5">
-        <v>1.02014360611361</v>
+        <v>1.053315316837769</v>
       </c>
       <c r="N5">
-        <v>1.007521307237309</v>
+        <v>1.040145194121756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9871144884778749</v>
+        <v>1.034292458834961</v>
       </c>
       <c r="D6">
-        <v>0.9944289642375579</v>
+        <v>1.036767835288093</v>
       </c>
       <c r="E6">
-        <v>1.002984490389223</v>
+        <v>1.042431980210292</v>
       </c>
       <c r="F6">
-        <v>1.010669821419147</v>
+        <v>1.050980787054044</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045814649078508</v>
+        <v>1.027089592627047</v>
       </c>
       <c r="J6">
-        <v>1.006311236633803</v>
+        <v>1.038718840890289</v>
       </c>
       <c r="K6">
-        <v>1.004330802837544</v>
+        <v>1.039189427152059</v>
       </c>
       <c r="L6">
-        <v>1.012785773304577</v>
+        <v>1.044839717126425</v>
       </c>
       <c r="M6">
-        <v>1.02038256765086</v>
+        <v>1.053367916726609</v>
       </c>
       <c r="N6">
-        <v>1.007740314015335</v>
+        <v>1.040193940787069</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9850116262448971</v>
+        <v>1.033844120725848</v>
       </c>
       <c r="D7">
-        <v>0.9925322422238023</v>
+        <v>1.036346351445973</v>
       </c>
       <c r="E7">
-        <v>1.001186330543058</v>
+        <v>1.042034781253274</v>
       </c>
       <c r="F7">
-        <v>1.008740511268556</v>
+        <v>1.050559079949389</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045694445051317</v>
+        <v>1.027095871081568</v>
       </c>
       <c r="J7">
-        <v>1.004800431220058</v>
+        <v>1.038384041062604</v>
       </c>
       <c r="K7">
-        <v>1.002718607931439</v>
+        <v>1.038828749752192</v>
       </c>
       <c r="L7">
-        <v>1.011267461997596</v>
+        <v>1.044502893145985</v>
       </c>
       <c r="M7">
-        <v>1.018731611893605</v>
+        <v>1.053006094837627</v>
       </c>
       <c r="N7">
-        <v>1.00622736308461</v>
+        <v>1.039858665505227</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9759745917904652</v>
+        <v>1.031968822251985</v>
       </c>
       <c r="D8">
-        <v>0.9843944551748157</v>
+        <v>1.034583967961278</v>
       </c>
       <c r="E8">
-        <v>0.9934702904253636</v>
+        <v>1.04037342033468</v>
       </c>
       <c r="F8">
-        <v>1.000454724137922</v>
+        <v>1.048794111774693</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04513879562424</v>
+        <v>1.027117075349439</v>
       </c>
       <c r="J8">
-        <v>0.9983034407065219</v>
+        <v>1.036982517357087</v>
       </c>
       <c r="K8">
-        <v>0.9957900467834468</v>
+        <v>1.037319448398184</v>
       </c>
       <c r="L8">
-        <v>1.004739443333368</v>
+        <v>1.04309277253226</v>
       </c>
       <c r="M8">
-        <v>1.011628539417242</v>
+        <v>1.051490349848124</v>
       </c>
       <c r="N8">
-        <v>0.9997211460993302</v>
+        <v>1.038455151475292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9590002847463627</v>
+        <v>1.02865897405227</v>
       </c>
       <c r="D9">
-        <v>0.9691671827295342</v>
+        <v>1.031475683801637</v>
       </c>
       <c r="E9">
-        <v>0.9790305271913351</v>
+        <v>1.037441363213987</v>
       </c>
       <c r="F9">
-        <v>0.9849239136002662</v>
+        <v>1.045675086972748</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04395220716265</v>
+        <v>1.027135493338906</v>
       </c>
       <c r="J9">
-        <v>0.9860888209724152</v>
+        <v>1.03450463607754</v>
       </c>
       <c r="K9">
-        <v>0.9827811268558828</v>
+        <v>1.034653091461776</v>
       </c>
       <c r="L9">
-        <v>0.9924732353541597</v>
+        <v>1.040599246237562</v>
       </c>
       <c r="M9">
-        <v>0.9982664191673392</v>
+        <v>1.04880642305911</v>
       </c>
       <c r="N9">
-        <v>0.9874891802041647</v>
+        <v>1.035973751320111</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9468509369685548</v>
+        <v>1.026448480574685</v>
       </c>
       <c r="D10">
-        <v>0.9583145409639059</v>
+        <v>1.029401378332018</v>
       </c>
       <c r="E10">
-        <v>0.9687409259945012</v>
+        <v>1.035483375659143</v>
       </c>
       <c r="F10">
-        <v>0.9738421448543469</v>
+        <v>1.043589497278466</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043014144574077</v>
+        <v>1.027135073965822</v>
       </c>
       <c r="J10">
-        <v>0.9773443718227259</v>
+        <v>1.032846958485051</v>
       </c>
       <c r="K10">
-        <v>0.9734795618120502</v>
+        <v>1.032870719864811</v>
       </c>
       <c r="L10">
-        <v>0.983698479487612</v>
+        <v>1.038930821087465</v>
       </c>
       <c r="M10">
-        <v>0.9887003134379928</v>
+        <v>1.047008196840262</v>
       </c>
       <c r="N10">
-        <v>0.9787323129336805</v>
+        <v>1.034313719635302</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9413593777698566</v>
+        <v>1.02549030406946</v>
       </c>
       <c r="D11">
-        <v>0.9534218291522258</v>
+        <v>1.028502617583057</v>
       </c>
       <c r="E11">
-        <v>0.9641032072592683</v>
+        <v>1.034634712796473</v>
       </c>
       <c r="F11">
-        <v>0.9688444260602533</v>
+        <v>1.042684879697908</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042571121250006</v>
+        <v>1.027131888730443</v>
       </c>
       <c r="J11">
-        <v>0.9733928950260191</v>
+        <v>1.032127748160393</v>
       </c>
       <c r="K11">
-        <v>0.9692790515031467</v>
+        <v>1.03209773954214</v>
       </c>
       <c r="L11">
-        <v>0.9797353930365138</v>
+        <v>1.03820688508899</v>
       </c>
       <c r="M11">
-        <v>0.9843788203120659</v>
+        <v>1.046227376924534</v>
       </c>
       <c r="N11">
-        <v>0.9747752245866819</v>
+        <v>1.033593487949488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9392816378774579</v>
+        <v>1.025134234986797</v>
       </c>
       <c r="D12">
-        <v>0.9515727439952583</v>
+        <v>1.028168686372347</v>
       </c>
       <c r="E12">
-        <v>0.9623507346135927</v>
+        <v>1.034319350475942</v>
       </c>
       <c r="F12">
-        <v>0.9669555246304977</v>
+        <v>1.04234862776293</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042400835642582</v>
+        <v>1.027130254926545</v>
       </c>
       <c r="J12">
-        <v>0.9718981487630728</v>
+        <v>1.031860382753411</v>
       </c>
       <c r="K12">
-        <v>0.9676905090055755</v>
+        <v>1.031810434860732</v>
       </c>
       <c r="L12">
-        <v>0.9782366169849357</v>
+        <v>1.037937753839226</v>
       </c>
       <c r="M12">
-        <v>0.9827444209158395</v>
+        <v>1.045937014506062</v>
       </c>
       <c r="N12">
-        <v>0.9732783556125921</v>
+        <v>1.033325742852961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9397290933554086</v>
+        <v>1.025210620346722</v>
       </c>
       <c r="D13">
-        <v>0.9519708603603682</v>
+        <v>1.028240319975962</v>
       </c>
       <c r="E13">
-        <v>0.9627280376583064</v>
+        <v>1.03438700277544</v>
       </c>
       <c r="F13">
-        <v>0.9673622174074877</v>
+        <v>1.042420765732449</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042437624999194</v>
+        <v>1.027130625767152</v>
       </c>
       <c r="J13">
-        <v>0.972220036536581</v>
+        <v>1.031917743509937</v>
       </c>
       <c r="K13">
-        <v>0.9680325770822005</v>
+        <v>1.031872071156671</v>
       </c>
       <c r="L13">
-        <v>0.9785593553950361</v>
+        <v>1.037995493846348</v>
       </c>
       <c r="M13">
-        <v>0.9830963661426526</v>
+        <v>1.045999313282914</v>
       </c>
       <c r="N13">
-        <v>0.9736007005036597</v>
+        <v>1.033383185068341</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9411884252015509</v>
+        <v>1.025460874583963</v>
       </c>
       <c r="D14">
-        <v>0.9532696466621248</v>
+        <v>1.028475016621922</v>
       </c>
       <c r="E14">
-        <v>0.9639589707475199</v>
+        <v>1.034608647551608</v>
       </c>
       <c r="F14">
-        <v>0.9686889685320085</v>
+        <v>1.042657089864312</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042557163417402</v>
+        <v>1.027131762869742</v>
       </c>
       <c r="J14">
-        <v>0.9732699031061809</v>
+        <v>1.03210565213985</v>
       </c>
       <c r="K14">
-        <v>0.96914833351837</v>
+        <v>1.032073994657188</v>
       </c>
       <c r="L14">
-        <v>0.9796120618991536</v>
+        <v>1.038184643316223</v>
       </c>
       <c r="M14">
-        <v>0.9842443302072431</v>
+        <v>1.046203382255954</v>
       </c>
       <c r="N14">
-        <v>0.9746520580042098</v>
+        <v>1.033571360550061</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9420824372264521</v>
+        <v>1.025615043120989</v>
       </c>
       <c r="D15">
-        <v>0.9540655844365722</v>
+        <v>1.02861960869128</v>
       </c>
       <c r="E15">
-        <v>0.9647133601888909</v>
+        <v>1.034745192692639</v>
       </c>
       <c r="F15">
-        <v>0.9695020306927906</v>
+        <v>1.042802665454065</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042630049926935</v>
+        <v>1.02713240377623</v>
       </c>
       <c r="J15">
-        <v>0.9739131136779113</v>
+        <v>1.032221399735092</v>
       </c>
       <c r="K15">
-        <v>0.9698319656122038</v>
+        <v>1.032198381681256</v>
       </c>
       <c r="L15">
-        <v>0.9802570614865069</v>
+        <v>1.03830115404886</v>
       </c>
       <c r="M15">
-        <v>0.9849476863720452</v>
+        <v>1.046329071880331</v>
       </c>
       <c r="N15">
-        <v>0.9752961820087296</v>
+        <v>1.033687272520165</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9472102622506712</v>
+        <v>1.02651204957064</v>
       </c>
       <c r="D16">
-        <v>0.9586349595032307</v>
+        <v>1.029461013595102</v>
       </c>
       <c r="E16">
-        <v>0.9690446750114358</v>
+        <v>1.035539680488125</v>
       </c>
       <c r="F16">
-        <v>0.9741694150404663</v>
+        <v>1.043649500840092</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043042754549599</v>
+        <v>1.027135222127453</v>
       </c>
       <c r="J16">
-        <v>0.9776029594492247</v>
+        <v>1.032894659692443</v>
       </c>
       <c r="K16">
-        <v>0.9737545025485143</v>
+        <v>1.032921994293371</v>
       </c>
       <c r="L16">
-        <v>0.9839578740132334</v>
+        <v>1.038978834431674</v>
       </c>
       <c r="M16">
-        <v>0.9889831517510642</v>
+        <v>1.047059971080831</v>
       </c>
       <c r="N16">
-        <v>0.9789912677842696</v>
+        <v>1.03436148858388</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9503628448271363</v>
+        <v>1.027074440696917</v>
       </c>
       <c r="D17">
-        <v>0.9614476447595882</v>
+        <v>1.029988647510107</v>
       </c>
       <c r="E17">
-        <v>0.9717111710098173</v>
+        <v>1.036037813103451</v>
       </c>
       <c r="F17">
-        <v>0.9770420657912667</v>
+        <v>1.044180281696327</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043291642250374</v>
+        <v>1.027136186270597</v>
       </c>
       <c r="J17">
-        <v>0.9798718428760045</v>
+        <v>1.033316593141574</v>
       </c>
       <c r="K17">
-        <v>0.9761671771887848</v>
+        <v>1.033375572243873</v>
       </c>
       <c r="L17">
-        <v>0.9862340781447134</v>
+        <v>1.03940352164697</v>
       </c>
       <c r="M17">
-        <v>0.9914649720044373</v>
+        <v>1.047517859280912</v>
       </c>
       <c r="N17">
-        <v>0.9812633732857596</v>
+        <v>1.034784021226905</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9521796632037235</v>
+        <v>1.027402376134754</v>
       </c>
       <c r="D18">
-        <v>0.963069767119163</v>
+        <v>1.030296352546838</v>
       </c>
       <c r="E18">
-        <v>0.9732490876097506</v>
+        <v>1.036328284577319</v>
       </c>
       <c r="F18">
-        <v>0.9786986015467956</v>
+        <v>1.044489728593465</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043433274305323</v>
+        <v>1.027136458791933</v>
       </c>
       <c r="J18">
-        <v>0.981179478632037</v>
+        <v>1.033562562605005</v>
       </c>
       <c r="K18">
-        <v>0.9775579404866205</v>
+        <v>1.033640020974929</v>
       </c>
       <c r="L18">
-        <v>0.987546125812372</v>
+        <v>1.039651090378077</v>
       </c>
       <c r="M18">
-        <v>0.9928954421948527</v>
+        <v>1.047784728046271</v>
       </c>
       <c r="N18">
-        <v>0.9825728660345538</v>
+        <v>1.035030339995187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9527955069639252</v>
+        <v>1.027514177258704</v>
       </c>
       <c r="D19">
-        <v>0.9636198114983215</v>
+        <v>1.030401262863058</v>
       </c>
       <c r="E19">
-        <v>0.9737705943972457</v>
+        <v>1.036427314272066</v>
       </c>
       <c r="F19">
-        <v>0.9792602828295727</v>
+        <v>1.044595216928104</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043480972222344</v>
+        <v>1.027136502533042</v>
       </c>
       <c r="J19">
-        <v>0.9816227367621444</v>
+        <v>1.033646408705495</v>
       </c>
       <c r="K19">
-        <v>0.978029420340122</v>
+        <v>1.033730171693692</v>
       </c>
       <c r="L19">
-        <v>0.9879909108124922</v>
+        <v>1.039735480598679</v>
       </c>
       <c r="M19">
-        <v>0.9933803538076498</v>
+        <v>1.047875687960345</v>
       </c>
       <c r="N19">
-        <v>0.9830167536420482</v>
+        <v>1.035114305166756</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9500269033998001</v>
+        <v>1.027014111615058</v>
       </c>
       <c r="D20">
-        <v>0.9611477987465014</v>
+        <v>1.029932043102197</v>
       </c>
       <c r="E20">
-        <v>0.9714268982077064</v>
+        <v>1.035984376585629</v>
       </c>
       <c r="F20">
-        <v>0.9767358439422053</v>
+        <v>1.044123349338629</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043265306426602</v>
+        <v>1.027136112803094</v>
       </c>
       <c r="J20">
-        <v>0.9796300588436007</v>
+        <v>1.033271337897983</v>
       </c>
       <c r="K20">
-        <v>0.9759100434550214</v>
+        <v>1.033326919616019</v>
       </c>
       <c r="L20">
-        <v>0.9859914936239859</v>
+        <v>1.039357971667912</v>
       </c>
       <c r="M20">
-        <v>0.99120048388268</v>
+        <v>1.047468753928698</v>
       </c>
       <c r="N20">
-        <v>0.9810212458922971</v>
+        <v>1.034738701715677</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9407597636212917</v>
+        <v>1.02538718540997</v>
       </c>
       <c r="D21">
-        <v>0.9528880848832596</v>
+        <v>1.028405906877354</v>
       </c>
       <c r="E21">
-        <v>0.9635973358136234</v>
+        <v>1.034543382347951</v>
       </c>
       <c r="F21">
-        <v>0.9682991937006596</v>
+        <v>1.042587504870152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042522122094057</v>
+        <v>1.02713144045722</v>
       </c>
       <c r="J21">
-        <v>0.9729615076496851</v>
+        <v>1.032050323805133</v>
       </c>
       <c r="K21">
-        <v>0.9688205719211127</v>
+        <v>1.032014538375291</v>
       </c>
       <c r="L21">
-        <v>0.9793028218663532</v>
+        <v>1.038128949873089</v>
       </c>
       <c r="M21">
-        <v>0.9839071091880549</v>
+        <v>1.046143298204571</v>
       </c>
       <c r="N21">
-        <v>0.9743432245907927</v>
+        <v>1.033515953642764</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9347117625761756</v>
+        <v>1.024363345214616</v>
       </c>
       <c r="D22">
-        <v>0.9475098207650339</v>
+        <v>1.02744583265408</v>
       </c>
       <c r="E22">
-        <v>0.9585006281128005</v>
+        <v>1.033636610928284</v>
       </c>
       <c r="F22">
-        <v>0.9628050221803439</v>
+        <v>1.041620486689896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042021604275044</v>
+        <v>1.027125895640543</v>
       </c>
       <c r="J22">
-        <v>0.9686112635805789</v>
+        <v>1.031281356336901</v>
       </c>
       <c r="K22">
-        <v>0.9641981190616452</v>
+        <v>1.031188317273096</v>
       </c>
       <c r="L22">
-        <v>0.9749415959606704</v>
+        <v>1.037354886937458</v>
       </c>
       <c r="M22">
-        <v>0.9791511711314589</v>
+        <v>1.045308013626121</v>
       </c>
       <c r="N22">
-        <v>0.9699868026761284</v>
+        <v>1.032745894152524</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9379401060069205</v>
+        <v>1.024906192395689</v>
       </c>
       <c r="D23">
-        <v>0.9503794562405801</v>
+        <v>1.027954838383862</v>
       </c>
       <c r="E23">
-        <v>0.9612198728891646</v>
+        <v>1.034117381355356</v>
       </c>
       <c r="F23">
-        <v>0.9657365215861952</v>
+        <v>1.042133252966053</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042290160598654</v>
+        <v>1.027129081982447</v>
       </c>
       <c r="J23">
-        <v>0.9709331418085508</v>
+        <v>1.031689122217207</v>
       </c>
       <c r="K23">
-        <v>0.9666650618540429</v>
+        <v>1.031626416225203</v>
       </c>
       <c r="L23">
-        <v>0.9772691169060035</v>
+        <v>1.037765359680263</v>
       </c>
       <c r="M23">
-        <v>0.9816893591375216</v>
+        <v>1.045750996997079</v>
       </c>
       <c r="N23">
-        <v>0.972311978237507</v>
+        <v>1.033154239107152</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9501787687077469</v>
+        <v>1.027041372032825</v>
       </c>
       <c r="D24">
-        <v>0.961283343132765</v>
+        <v>1.029957620367633</v>
       </c>
       <c r="E24">
-        <v>0.9715554024582905</v>
+        <v>1.036008522498106</v>
       </c>
       <c r="F24">
-        <v>0.9768742710399743</v>
+        <v>1.044149075080059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043277217376931</v>
+        <v>1.027136146895652</v>
       </c>
       <c r="J24">
-        <v>0.9797393591983995</v>
+        <v>1.033291787218759</v>
       </c>
       <c r="K24">
-        <v>0.9760262819675558</v>
+        <v>1.033348904001888</v>
       </c>
       <c r="L24">
-        <v>0.9861011552507256</v>
+        <v>1.039378554188485</v>
       </c>
       <c r="M24">
-        <v>0.9913200474603709</v>
+        <v>1.047490943171949</v>
       </c>
       <c r="N24">
-        <v>0.9811307014661365</v>
+        <v>1.034759180076834</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9635252172946808</v>
+        <v>1.029515316260203</v>
       </c>
       <c r="D25">
-        <v>0.973219035890703</v>
+        <v>1.032279602518276</v>
       </c>
       <c r="E25">
-        <v>0.9828727483564252</v>
+        <v>1.038199931244027</v>
       </c>
       <c r="F25">
-        <v>0.9890591205588126</v>
+        <v>1.046482511823909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044284276388588</v>
+        <v>1.027132972879727</v>
       </c>
       <c r="J25">
-        <v>0.9893456969852981</v>
+        <v>1.035146225364231</v>
       </c>
       <c r="K25">
-        <v>0.9862478237060233</v>
+        <v>1.035343236666787</v>
       </c>
       <c r="L25">
-        <v>0.9957428919284844</v>
+        <v>1.041244937277922</v>
       </c>
       <c r="M25">
-        <v>1.001829687665542</v>
+        <v>1.049501843165034</v>
       </c>
       <c r="N25">
-        <v>0.9907506813545545</v>
+        <v>1.03661625173718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_65/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_65/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031485694350901</v>
+        <v>0.9735810530805972</v>
       </c>
       <c r="D2">
-        <v>1.034130082505344</v>
+        <v>0.9822426972457625</v>
       </c>
       <c r="E2">
-        <v>1.039945419585241</v>
+        <v>0.9914298457788242</v>
       </c>
       <c r="F2">
-        <v>1.048339139711061</v>
+        <v>0.9982619016471913</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027121246648626</v>
+        <v>1.044981915741178</v>
       </c>
       <c r="J2">
-        <v>1.036621158574207</v>
+        <v>0.996581722764695</v>
       </c>
       <c r="K2">
-        <v>1.036930441628195</v>
+        <v>0.9939550911139442</v>
       </c>
       <c r="L2">
-        <v>1.042729166280559</v>
+        <v>1.003009881953291</v>
       </c>
       <c r="M2">
-        <v>1.051099260956818</v>
+        <v>1.009745504169227</v>
       </c>
       <c r="N2">
-        <v>1.038093279521491</v>
+        <v>0.9979969831205424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032914841727663</v>
+        <v>0.9805829432146634</v>
       </c>
       <c r="D3">
-        <v>1.035472907661368</v>
+        <v>0.9885415447498308</v>
       </c>
       <c r="E3">
-        <v>1.041211508479991</v>
+        <v>0.9974026446328167</v>
       </c>
       <c r="F3">
-        <v>1.049684684210353</v>
+        <v>1.004678787280362</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027107386996032</v>
+        <v>1.045429726912766</v>
       </c>
       <c r="J3">
-        <v>1.037689760018518</v>
+        <v>1.001617306281146</v>
       </c>
       <c r="K3">
-        <v>1.038080968582189</v>
+        <v>0.9993231689687778</v>
       </c>
       <c r="L3">
-        <v>1.043804377773365</v>
+        <v>1.008068867338298</v>
       </c>
       <c r="M3">
-        <v>1.052255450554406</v>
+        <v>1.015252150152558</v>
       </c>
       <c r="N3">
-        <v>1.039163398502424</v>
+        <v>1.003039717743176</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033838931196638</v>
+        <v>0.9849871582022581</v>
       </c>
       <c r="D4">
-        <v>1.036341473076731</v>
+        <v>0.9925101796891718</v>
       </c>
       <c r="E4">
-        <v>1.042030183676856</v>
+        <v>1.001165413754493</v>
       </c>
       <c r="F4">
-        <v>1.050554198088799</v>
+        <v>1.008718065044765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02709594097996</v>
+        <v>1.04569302498653</v>
       </c>
       <c r="J4">
-        <v>1.038380165121777</v>
+        <v>1.004782849557101</v>
       </c>
       <c r="K4">
-        <v>1.038824574530844</v>
+        <v>1.00269984876871</v>
       </c>
       <c r="L4">
-        <v>1.044498993703159</v>
+        <v>1.011249793580382</v>
       </c>
       <c r="M4">
-        <v>1.053001905458458</v>
+        <v>1.018712397223251</v>
       </c>
       <c r="N4">
-        <v>1.03985478406012</v>
+        <v>1.006209756453676</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034227264771045</v>
+        <v>0.9868100509251562</v>
       </c>
       <c r="D5">
-        <v>1.036706542765868</v>
+        <v>0.9941542970693774</v>
       </c>
       <c r="E5">
-        <v>1.042374222274319</v>
+        <v>1.002724104059532</v>
       </c>
       <c r="F5">
-        <v>1.050919471727514</v>
+        <v>1.010390484661548</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027090535141004</v>
+        <v>1.045797474831673</v>
       </c>
       <c r="J5">
-        <v>1.038670163352662</v>
+        <v>1.006092540429472</v>
       </c>
       <c r="K5">
-        <v>1.039136983990695</v>
+        <v>1.004097404572644</v>
       </c>
       <c r="L5">
-        <v>1.044790746023724</v>
+        <v>1.012565984455593</v>
       </c>
       <c r="M5">
-        <v>1.053315316837769</v>
+        <v>1.02014360611361</v>
       </c>
       <c r="N5">
-        <v>1.040145194121756</v>
+        <v>1.007521307237309</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034292458834961</v>
+        <v>0.987114488477875</v>
       </c>
       <c r="D6">
-        <v>1.036767835288093</v>
+        <v>0.9944289642375579</v>
       </c>
       <c r="E6">
-        <v>1.042431980210292</v>
+        <v>1.002984490389223</v>
       </c>
       <c r="F6">
-        <v>1.050980787054044</v>
+        <v>1.010669821419147</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027089592627047</v>
+        <v>1.045814649078508</v>
       </c>
       <c r="J6">
-        <v>1.038718840890289</v>
+        <v>1.006311236633803</v>
       </c>
       <c r="K6">
-        <v>1.039189427152059</v>
+        <v>1.004330802837544</v>
       </c>
       <c r="L6">
-        <v>1.044839717126425</v>
+        <v>1.012785773304577</v>
       </c>
       <c r="M6">
-        <v>1.053367916726609</v>
+        <v>1.020382567650861</v>
       </c>
       <c r="N6">
-        <v>1.040193940787069</v>
+        <v>1.007740314015335</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033844120725848</v>
+        <v>0.9850116262448976</v>
       </c>
       <c r="D7">
-        <v>1.036346351445973</v>
+        <v>0.9925322422238029</v>
       </c>
       <c r="E7">
-        <v>1.042034781253274</v>
+        <v>1.001186330543058</v>
       </c>
       <c r="F7">
-        <v>1.050559079949389</v>
+        <v>1.008740511268556</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027095871081568</v>
+        <v>1.045694445051317</v>
       </c>
       <c r="J7">
-        <v>1.038384041062604</v>
+        <v>1.004800431220058</v>
       </c>
       <c r="K7">
-        <v>1.038828749752192</v>
+        <v>1.00271860793144</v>
       </c>
       <c r="L7">
-        <v>1.044502893145985</v>
+        <v>1.011267461997597</v>
       </c>
       <c r="M7">
-        <v>1.053006094837627</v>
+        <v>1.018731611893605</v>
       </c>
       <c r="N7">
-        <v>1.039858665505227</v>
+        <v>1.006227363084611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031968822251985</v>
+        <v>0.9759745917904635</v>
       </c>
       <c r="D8">
-        <v>1.034583967961278</v>
+        <v>0.9843944551748144</v>
       </c>
       <c r="E8">
-        <v>1.04037342033468</v>
+        <v>0.9934702904253621</v>
       </c>
       <c r="F8">
-        <v>1.048794111774693</v>
+        <v>1.000454724137921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027117075349439</v>
+        <v>1.04513879562424</v>
       </c>
       <c r="J8">
-        <v>1.036982517357087</v>
+        <v>0.9983034407065206</v>
       </c>
       <c r="K8">
-        <v>1.037319448398184</v>
+        <v>0.9957900467834454</v>
       </c>
       <c r="L8">
-        <v>1.04309277253226</v>
+        <v>1.004739443333366</v>
       </c>
       <c r="M8">
-        <v>1.051490349848124</v>
+        <v>1.01162853941724</v>
       </c>
       <c r="N8">
-        <v>1.038455151475292</v>
+        <v>0.9997211460993289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02865897405227</v>
+        <v>0.9590002847463655</v>
       </c>
       <c r="D9">
-        <v>1.031475683801637</v>
+        <v>0.9691671827295368</v>
       </c>
       <c r="E9">
-        <v>1.037441363213987</v>
+        <v>0.9790305271913373</v>
       </c>
       <c r="F9">
-        <v>1.045675086972748</v>
+        <v>0.9849239136002683</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027135493338906</v>
+        <v>1.043952207162651</v>
       </c>
       <c r="J9">
-        <v>1.03450463607754</v>
+        <v>0.9860888209724176</v>
       </c>
       <c r="K9">
-        <v>1.034653091461776</v>
+        <v>0.9827811268558854</v>
       </c>
       <c r="L9">
-        <v>1.040599246237562</v>
+        <v>0.9924732353541617</v>
       </c>
       <c r="M9">
-        <v>1.04880642305911</v>
+        <v>0.9982664191673413</v>
       </c>
       <c r="N9">
-        <v>1.035973751320111</v>
+        <v>0.9874891802041672</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026448480574685</v>
+        <v>0.9468509369685547</v>
       </c>
       <c r="D10">
-        <v>1.029401378332018</v>
+        <v>0.9583145409639058</v>
       </c>
       <c r="E10">
-        <v>1.035483375659143</v>
+        <v>0.968740925994501</v>
       </c>
       <c r="F10">
-        <v>1.043589497278466</v>
+        <v>0.9738421448543465</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027135073965822</v>
+        <v>1.043014144574076</v>
       </c>
       <c r="J10">
-        <v>1.032846958485051</v>
+        <v>0.9773443718227258</v>
       </c>
       <c r="K10">
-        <v>1.032870719864811</v>
+        <v>0.9734795618120503</v>
       </c>
       <c r="L10">
-        <v>1.038930821087465</v>
+        <v>0.9836984794876117</v>
       </c>
       <c r="M10">
-        <v>1.047008196840262</v>
+        <v>0.9887003134379925</v>
       </c>
       <c r="N10">
-        <v>1.034313719635302</v>
+        <v>0.9787323129336803</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02549030406946</v>
+        <v>0.9413593777698555</v>
       </c>
       <c r="D11">
-        <v>1.028502617583057</v>
+        <v>0.9534218291522247</v>
       </c>
       <c r="E11">
-        <v>1.034634712796473</v>
+        <v>0.9641032072592673</v>
       </c>
       <c r="F11">
-        <v>1.042684879697908</v>
+        <v>0.9688444260602525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027131888730443</v>
+        <v>1.042571121250006</v>
       </c>
       <c r="J11">
-        <v>1.032127748160393</v>
+        <v>0.973392895026018</v>
       </c>
       <c r="K11">
-        <v>1.03209773954214</v>
+        <v>0.9692790515031456</v>
       </c>
       <c r="L11">
-        <v>1.03820688508899</v>
+        <v>0.9797353930365128</v>
       </c>
       <c r="M11">
-        <v>1.046227376924534</v>
+        <v>0.9843788203120649</v>
       </c>
       <c r="N11">
-        <v>1.033593487949488</v>
+        <v>0.9747752245866809</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025134234986797</v>
+        <v>0.9392816378774589</v>
       </c>
       <c r="D12">
-        <v>1.028168686372347</v>
+        <v>0.9515727439952594</v>
       </c>
       <c r="E12">
-        <v>1.034319350475942</v>
+        <v>0.9623507346135933</v>
       </c>
       <c r="F12">
-        <v>1.04234862776293</v>
+        <v>0.9669555246304979</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027130254926545</v>
+        <v>1.042400835642582</v>
       </c>
       <c r="J12">
-        <v>1.031860382753411</v>
+        <v>0.9718981487630737</v>
       </c>
       <c r="K12">
-        <v>1.031810434860732</v>
+        <v>0.9676905090055765</v>
       </c>
       <c r="L12">
-        <v>1.037937753839226</v>
+        <v>0.9782366169849365</v>
       </c>
       <c r="M12">
-        <v>1.045937014506062</v>
+        <v>0.9827444209158399</v>
       </c>
       <c r="N12">
-        <v>1.033325742852961</v>
+        <v>0.9732783556125929</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025210620346722</v>
+        <v>0.9397290933554092</v>
       </c>
       <c r="D13">
-        <v>1.028240319975962</v>
+        <v>0.9519708603603685</v>
       </c>
       <c r="E13">
-        <v>1.03438700277544</v>
+        <v>0.9627280376583063</v>
       </c>
       <c r="F13">
-        <v>1.042420765732449</v>
+        <v>0.9673622174074877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027130625767152</v>
+        <v>1.042437624999194</v>
       </c>
       <c r="J13">
-        <v>1.031917743509937</v>
+        <v>0.9722200365365814</v>
       </c>
       <c r="K13">
-        <v>1.031872071156671</v>
+        <v>0.9680325770822007</v>
       </c>
       <c r="L13">
-        <v>1.037995493846348</v>
+        <v>0.9785593553950362</v>
       </c>
       <c r="M13">
-        <v>1.045999313282914</v>
+        <v>0.9830963661426527</v>
       </c>
       <c r="N13">
-        <v>1.033383185068341</v>
+        <v>0.9736007005036602</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025460874583963</v>
+        <v>0.9411884252015503</v>
       </c>
       <c r="D14">
-        <v>1.028475016621922</v>
+        <v>0.9532696466621248</v>
       </c>
       <c r="E14">
-        <v>1.034608647551608</v>
+        <v>0.9639589707475196</v>
       </c>
       <c r="F14">
-        <v>1.042657089864312</v>
+        <v>0.9686889685320084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027131762869742</v>
+        <v>1.042557163417402</v>
       </c>
       <c r="J14">
-        <v>1.03210565213985</v>
+        <v>0.9732699031061807</v>
       </c>
       <c r="K14">
-        <v>1.032073994657188</v>
+        <v>0.9691483335183702</v>
       </c>
       <c r="L14">
-        <v>1.038184643316223</v>
+        <v>0.9796120618991533</v>
       </c>
       <c r="M14">
-        <v>1.046203382255954</v>
+        <v>0.9842443302072429</v>
       </c>
       <c r="N14">
-        <v>1.033571360550061</v>
+        <v>0.9746520580042095</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025615043120989</v>
+        <v>0.9420824372264518</v>
       </c>
       <c r="D15">
-        <v>1.02861960869128</v>
+        <v>0.9540655844365719</v>
       </c>
       <c r="E15">
-        <v>1.034745192692639</v>
+        <v>0.9647133601888906</v>
       </c>
       <c r="F15">
-        <v>1.042802665454065</v>
+        <v>0.9695020306927901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02713240377623</v>
+        <v>1.042630049926934</v>
       </c>
       <c r="J15">
-        <v>1.032221399735092</v>
+        <v>0.973913113677911</v>
       </c>
       <c r="K15">
-        <v>1.032198381681256</v>
+        <v>0.969831965612203</v>
       </c>
       <c r="L15">
-        <v>1.03830115404886</v>
+        <v>0.9802570614865067</v>
       </c>
       <c r="M15">
-        <v>1.046329071880331</v>
+        <v>0.9849476863720446</v>
       </c>
       <c r="N15">
-        <v>1.033687272520165</v>
+        <v>0.9752961820087288</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02651204957064</v>
+        <v>0.9472102622506695</v>
       </c>
       <c r="D16">
-        <v>1.029461013595102</v>
+        <v>0.958634959503229</v>
       </c>
       <c r="E16">
-        <v>1.035539680488125</v>
+        <v>0.9690446750114343</v>
       </c>
       <c r="F16">
-        <v>1.043649500840092</v>
+        <v>0.9741694150404651</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027135222127453</v>
+        <v>1.043042754549599</v>
       </c>
       <c r="J16">
-        <v>1.032894659692443</v>
+        <v>0.977602959449223</v>
       </c>
       <c r="K16">
-        <v>1.032921994293371</v>
+        <v>0.9737545025485128</v>
       </c>
       <c r="L16">
-        <v>1.038978834431674</v>
+        <v>0.9839578740132321</v>
       </c>
       <c r="M16">
-        <v>1.047059971080831</v>
+        <v>0.988983151751063</v>
       </c>
       <c r="N16">
-        <v>1.03436148858388</v>
+        <v>0.978991267784268</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027074440696917</v>
+        <v>0.9503628448271373</v>
       </c>
       <c r="D17">
-        <v>1.029988647510107</v>
+        <v>0.9614476447595889</v>
       </c>
       <c r="E17">
-        <v>1.036037813103451</v>
+        <v>0.9717111710098182</v>
       </c>
       <c r="F17">
-        <v>1.044180281696327</v>
+        <v>0.9770420657912676</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027136186270597</v>
+        <v>1.043291642250374</v>
       </c>
       <c r="J17">
-        <v>1.033316593141574</v>
+        <v>0.9798718428760053</v>
       </c>
       <c r="K17">
-        <v>1.033375572243873</v>
+        <v>0.9761671771887854</v>
       </c>
       <c r="L17">
-        <v>1.03940352164697</v>
+        <v>0.9862340781447142</v>
       </c>
       <c r="M17">
-        <v>1.047517859280912</v>
+        <v>0.9914649720044382</v>
       </c>
       <c r="N17">
-        <v>1.034784021226905</v>
+        <v>0.9812633732857603</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027402376134754</v>
+        <v>0.9521796632037219</v>
       </c>
       <c r="D18">
-        <v>1.030296352546838</v>
+        <v>0.9630697671191615</v>
       </c>
       <c r="E18">
-        <v>1.036328284577319</v>
+        <v>0.9732490876097497</v>
       </c>
       <c r="F18">
-        <v>1.044489728593465</v>
+        <v>0.9786986015467944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027136458791933</v>
+        <v>1.043433274305323</v>
       </c>
       <c r="J18">
-        <v>1.033562562605005</v>
+        <v>0.9811794786320355</v>
       </c>
       <c r="K18">
-        <v>1.033640020974929</v>
+        <v>0.9775579404866187</v>
       </c>
       <c r="L18">
-        <v>1.039651090378077</v>
+        <v>0.9875461258123709</v>
       </c>
       <c r="M18">
-        <v>1.047784728046271</v>
+        <v>0.9928954421948515</v>
       </c>
       <c r="N18">
-        <v>1.035030339995187</v>
+        <v>0.9825728660345523</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027514177258704</v>
+        <v>0.9527955069639267</v>
       </c>
       <c r="D19">
-        <v>1.030401262863058</v>
+        <v>0.9636198114983233</v>
       </c>
       <c r="E19">
-        <v>1.036427314272066</v>
+        <v>0.9737705943972471</v>
       </c>
       <c r="F19">
-        <v>1.044595216928104</v>
+        <v>0.9792602828295743</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027136502533042</v>
+        <v>1.043480972222344</v>
       </c>
       <c r="J19">
-        <v>1.033646408705495</v>
+        <v>0.9816227367621458</v>
       </c>
       <c r="K19">
-        <v>1.033730171693692</v>
+        <v>0.9780294203401235</v>
       </c>
       <c r="L19">
-        <v>1.039735480598679</v>
+        <v>0.9879909108124938</v>
       </c>
       <c r="M19">
-        <v>1.047875687960345</v>
+        <v>0.9933803538076514</v>
       </c>
       <c r="N19">
-        <v>1.035114305166756</v>
+        <v>0.9830167536420498</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027014111615058</v>
+        <v>0.9500269033998002</v>
       </c>
       <c r="D20">
-        <v>1.029932043102197</v>
+        <v>0.9611477987465014</v>
       </c>
       <c r="E20">
-        <v>1.035984376585629</v>
+        <v>0.9714268982077064</v>
       </c>
       <c r="F20">
-        <v>1.044123349338629</v>
+        <v>0.9767358439422053</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027136112803094</v>
+        <v>1.043265306426602</v>
       </c>
       <c r="J20">
-        <v>1.033271337897983</v>
+        <v>0.9796300588436007</v>
       </c>
       <c r="K20">
-        <v>1.033326919616019</v>
+        <v>0.9759100434550213</v>
       </c>
       <c r="L20">
-        <v>1.039357971667912</v>
+        <v>0.9859914936239857</v>
       </c>
       <c r="M20">
-        <v>1.047468753928698</v>
+        <v>0.9912004838826799</v>
       </c>
       <c r="N20">
-        <v>1.034738701715677</v>
+        <v>0.981021245892297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02538718540997</v>
+        <v>0.9407597636212918</v>
       </c>
       <c r="D21">
-        <v>1.028405906877354</v>
+        <v>0.9528880848832596</v>
       </c>
       <c r="E21">
-        <v>1.034543382347951</v>
+        <v>0.9635973358136236</v>
       </c>
       <c r="F21">
-        <v>1.042587504870152</v>
+        <v>0.9682991937006596</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02713144045722</v>
+        <v>1.042522122094057</v>
       </c>
       <c r="J21">
-        <v>1.032050323805133</v>
+        <v>0.9729615076496851</v>
       </c>
       <c r="K21">
-        <v>1.032014538375291</v>
+        <v>0.9688205719211126</v>
       </c>
       <c r="L21">
-        <v>1.038128949873089</v>
+        <v>0.9793028218663533</v>
       </c>
       <c r="M21">
-        <v>1.046143298204571</v>
+        <v>0.983907109188055</v>
       </c>
       <c r="N21">
-        <v>1.033515953642764</v>
+        <v>0.9743432245907926</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024363345214616</v>
+        <v>0.9347117625761745</v>
       </c>
       <c r="D22">
-        <v>1.02744583265408</v>
+        <v>0.9475098207650328</v>
       </c>
       <c r="E22">
-        <v>1.033636610928284</v>
+        <v>0.9585006281127995</v>
       </c>
       <c r="F22">
-        <v>1.041620486689896</v>
+        <v>0.962805022180343</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027125895640543</v>
+        <v>1.042021604275044</v>
       </c>
       <c r="J22">
-        <v>1.031281356336901</v>
+        <v>0.9686112635805777</v>
       </c>
       <c r="K22">
-        <v>1.031188317273096</v>
+        <v>0.9641981190616442</v>
       </c>
       <c r="L22">
-        <v>1.037354886937458</v>
+        <v>0.9749415959606694</v>
       </c>
       <c r="M22">
-        <v>1.045308013626121</v>
+        <v>0.9791511711314579</v>
       </c>
       <c r="N22">
-        <v>1.032745894152524</v>
+        <v>0.9699868026761269</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024906192395689</v>
+        <v>0.9379401060069192</v>
       </c>
       <c r="D23">
-        <v>1.027954838383862</v>
+        <v>0.9503794562405791</v>
       </c>
       <c r="E23">
-        <v>1.034117381355356</v>
+        <v>0.9612198728891636</v>
       </c>
       <c r="F23">
-        <v>1.042133252966053</v>
+        <v>0.9657365215861942</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027129081982447</v>
+        <v>1.042290160598654</v>
       </c>
       <c r="J23">
-        <v>1.031689122217207</v>
+        <v>0.9709331418085501</v>
       </c>
       <c r="K23">
-        <v>1.031626416225203</v>
+        <v>0.9666650618540418</v>
       </c>
       <c r="L23">
-        <v>1.037765359680263</v>
+        <v>0.9772691169060025</v>
       </c>
       <c r="M23">
-        <v>1.045750996997079</v>
+        <v>0.9816893591375205</v>
       </c>
       <c r="N23">
-        <v>1.033154239107152</v>
+        <v>0.9723119782375063</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027041372032825</v>
+        <v>0.9501787687077461</v>
       </c>
       <c r="D24">
-        <v>1.029957620367633</v>
+        <v>0.9612833431327641</v>
       </c>
       <c r="E24">
-        <v>1.036008522498106</v>
+        <v>0.97155540245829</v>
       </c>
       <c r="F24">
-        <v>1.044149075080059</v>
+        <v>0.9768742710399736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027136146895652</v>
+        <v>1.043277217376931</v>
       </c>
       <c r="J24">
-        <v>1.033291787218759</v>
+        <v>0.9797393591983991</v>
       </c>
       <c r="K24">
-        <v>1.033348904001888</v>
+        <v>0.9760262819675553</v>
       </c>
       <c r="L24">
-        <v>1.039378554188485</v>
+        <v>0.9861011552507252</v>
       </c>
       <c r="M24">
-        <v>1.047490943171949</v>
+        <v>0.9913200474603704</v>
       </c>
       <c r="N24">
-        <v>1.034759180076834</v>
+        <v>0.9811307014661361</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029515316260203</v>
+        <v>0.9635252172946795</v>
       </c>
       <c r="D25">
-        <v>1.032279602518276</v>
+        <v>0.9732190358907016</v>
       </c>
       <c r="E25">
-        <v>1.038199931244027</v>
+        <v>0.9828727483564239</v>
       </c>
       <c r="F25">
-        <v>1.046482511823909</v>
+        <v>0.989059120558812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027132972879727</v>
+        <v>1.044284276388588</v>
       </c>
       <c r="J25">
-        <v>1.035146225364231</v>
+        <v>0.9893456969852967</v>
       </c>
       <c r="K25">
-        <v>1.035343236666787</v>
+        <v>0.986247823706022</v>
       </c>
       <c r="L25">
-        <v>1.041244937277922</v>
+        <v>0.9957428919284833</v>
       </c>
       <c r="M25">
-        <v>1.049501843165034</v>
+        <v>1.001829687665541</v>
       </c>
       <c r="N25">
-        <v>1.03661625173718</v>
+        <v>0.9907506813545535</v>
       </c>
     </row>
   </sheetData>
